--- a/relatorio_tarefas.xlsx
+++ b/relatorio_tarefas.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Falha</t>
+          <t>Sucesso</t>
         </is>
       </c>
     </row>
